--- a/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7170F0E1-306F-4D9B-93E9-743D6F90252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F8DB01-2E2A-4668-BED7-CE0BFCB5EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCEF7C6C-08BC-43F4-B446-E578028E8D1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F88ACC5D-39DC-4DE4-BEE6-48A3F40EB971}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="319">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -74,907 +74,895 @@
     <t>7,0%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -983,25 +971,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,87%</t>
+    <t>53,13%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1416,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03498546-C59E-4140-B32E-CF4198A1B978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D9E11B-F25E-4264-B22C-388B05E7A2FB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2159,10 +2147,10 @@
         <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2171,13 +2159,13 @@
         <v>2343</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2186,13 +2174,13 @@
         <v>6463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2195,13 @@
         <v>3130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2222,13 +2210,13 @@
         <v>4696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2237,13 +2225,13 @@
         <v>7825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2246,13 @@
         <v>14536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2464,13 +2452,13 @@
         <v>8148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2479,13 +2467,13 @@
         <v>13182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2494,13 +2482,13 @@
         <v>21330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,10 +2503,10 @@
         <v>9564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>154</v>
@@ -2805,10 +2793,10 @@
         <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2811,13 @@
         <v>20378</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2838,13 +2826,13 @@
         <v>21431</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -2853,10 +2841,10 @@
         <v>41809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>205</v>
@@ -2997,7 +2985,7 @@
         <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>337</v>
@@ -3006,13 +2994,13 @@
         <v>235764</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3056,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3068,13 @@
         <v>61983</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>151</v>
@@ -3095,13 +3083,13 @@
         <v>80753</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>248</v>
@@ -3110,13 +3098,13 @@
         <v>142736</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3119,13 @@
         <v>41451</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -3146,13 +3134,13 @@
         <v>25212</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>101</v>
@@ -3161,13 +3149,13 @@
         <v>66663</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3170,13 @@
         <v>52541</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>137</v>
@@ -3197,13 +3185,13 @@
         <v>69484</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>219</v>
@@ -3212,13 +3200,13 @@
         <v>122025</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,10 +3224,10 @@
         <v>86</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>102</v>
@@ -3248,13 +3236,13 @@
         <v>51116</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>229</v>
@@ -3263,13 +3251,13 @@
         <v>138735</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3272,13 @@
         <v>87705</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>124</v>
@@ -3299,13 +3287,13 @@
         <v>169410</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>258</v>
@@ -3314,13 +3302,13 @@
         <v>257115</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3376,13 @@
         <v>118022</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>234</v>
@@ -3403,13 +3391,13 @@
         <v>138596</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>392</v>
@@ -3418,13 +3406,13 @@
         <v>256617</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3427,13 @@
         <v>75886</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -3454,13 +3442,13 @@
         <v>69621</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -3469,13 +3457,13 @@
         <v>145507</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3478,13 @@
         <v>163493</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>295</v>
@@ -3505,13 +3493,13 @@
         <v>184966</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>490</v>
@@ -3520,13 +3508,13 @@
         <v>348459</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3529,13 @@
         <v>501157</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H43" s="7">
         <v>751</v>
@@ -3556,13 +3544,13 @@
         <v>480008</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
         <v>1284</v>
@@ -3571,13 +3559,13 @@
         <v>981165</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3580,13 @@
         <v>774543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>1024</v>
@@ -3607,13 +3595,13 @@
         <v>824670</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>1742</v>
@@ -3622,13 +3610,13 @@
         <v>1599213</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3672,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F8DB01-2E2A-4668-BED7-CE0BFCB5EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A7F949-A09D-473B-A6CF-8CD48F27F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F88ACC5D-39DC-4DE4-BEE6-48A3F40EB971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6415F67C-25E1-4D15-A01B-39ECEF9EA07D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D9E11B-F25E-4264-B22C-388B05E7A2FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA3AB07-1E9B-46D9-90FC-B9E330558C08}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A7F949-A09D-473B-A6CF-8CD48F27F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16AA7E5-6A61-48AC-B1B3-945E510A1F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6415F67C-25E1-4D15-A01B-39ECEF9EA07D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{252B139A-A9CB-42A8-9D24-66C9A7C9B4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="323">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -113,13 +113,13 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>15,65%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>6,98%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -128,28 +128,28 @@
     <t>16,75%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -158,28 +158,28 @@
     <t>20,4%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -188,28 +188,28 @@
     <t>55,85%</t>
   </si>
   <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>52,55%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,7 +221,7 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -230,115 +230,115 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>25,3%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -347,622 +347,634 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -971,25 +983,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>53,87%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1404,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA3AB07-1E9B-46D9-90FC-B9E330558C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A169C4-421B-443E-B46B-8A6EA30F0C0A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2147,10 +2159,10 @@
         <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2159,13 +2171,13 @@
         <v>2343</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2174,13 +2186,13 @@
         <v>6463</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2207,13 @@
         <v>3130</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2210,13 +2222,13 @@
         <v>4696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2225,13 +2237,13 @@
         <v>7825</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2258,13 @@
         <v>14536</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2452,13 +2464,13 @@
         <v>8148</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2467,13 +2479,13 @@
         <v>13182</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2482,13 +2494,13 @@
         <v>21330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,10 +2515,10 @@
         <v>9564</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>154</v>
@@ -2793,10 +2805,10 @@
         <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2823,13 @@
         <v>20378</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -2826,13 +2838,13 @@
         <v>21431</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -2841,10 +2853,10 @@
         <v>41809</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>205</v>
@@ -2985,7 +2997,7 @@
         <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>337</v>
@@ -2994,13 +3006,13 @@
         <v>235764</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3068,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3068,13 +3080,13 @@
         <v>61983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>151</v>
@@ -3083,13 +3095,13 @@
         <v>80753</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>248</v>
@@ -3098,13 +3110,13 @@
         <v>142736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3131,13 @@
         <v>41451</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -3134,13 +3146,13 @@
         <v>25212</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>101</v>
@@ -3149,13 +3161,13 @@
         <v>66663</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3182,13 @@
         <v>52541</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>137</v>
@@ -3185,13 +3197,13 @@
         <v>69484</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>219</v>
@@ -3200,13 +3212,13 @@
         <v>122025</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,10 +3236,10 @@
         <v>86</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>102</v>
@@ -3236,13 +3248,13 @@
         <v>51116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>229</v>
@@ -3251,13 +3263,13 @@
         <v>138735</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3284,13 @@
         <v>87705</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>124</v>
@@ -3287,13 +3299,13 @@
         <v>169410</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>258</v>
@@ -3302,13 +3314,13 @@
         <v>257115</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3388,13 @@
         <v>118022</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>234</v>
@@ -3391,13 +3403,13 @@
         <v>138596</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>392</v>
@@ -3406,13 +3418,13 @@
         <v>256617</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3439,13 @@
         <v>75886</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -3442,13 +3454,13 @@
         <v>69621</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -3457,13 +3469,13 @@
         <v>145507</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3490,13 @@
         <v>163493</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>295</v>
@@ -3493,13 +3505,13 @@
         <v>184966</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>490</v>
@@ -3508,13 +3520,13 @@
         <v>348459</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3541,13 @@
         <v>501157</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H43" s="7">
         <v>751</v>
@@ -3544,13 +3556,13 @@
         <v>480008</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M43" s="7">
         <v>1284</v>
@@ -3559,13 +3571,13 @@
         <v>981165</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3592,13 @@
         <v>774543</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H44" s="7">
         <v>1024</v>
@@ -3595,13 +3607,13 @@
         <v>824670</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M44" s="7">
         <v>1742</v>
@@ -3610,13 +3622,13 @@
         <v>1599213</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3684,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16AA7E5-6A61-48AC-B1B3-945E510A1F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D118511-2C2A-4839-A6BD-4EB67B48E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{252B139A-A9CB-42A8-9D24-66C9A7C9B4DF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5CFCD581-E273-4D00-8726-CCC4EFE736AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="354">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -65,37 +65,37 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -110,898 +110,991 @@
     <t>3,75%</t>
   </si>
   <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1416,8 +1509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A169C4-421B-443E-B46B-8A6EA30F0C0A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFAEBBB-8876-41D8-BE8F-BF7433B1BB45}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1537,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6641</v>
+        <v>7117</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1552,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4046</v>
+        <v>3810</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1567,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>10686</v>
+        <v>10928</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1603,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>4138</v>
+        <v>3406</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1618,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>4138</v>
+        <v>3406</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1639,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>15893</v>
+        <v>16433</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1654,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>12857</v>
+        <v>11851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1669,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="7">
-        <v>28750</v>
+        <v>28284</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1690,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>19361</v>
+        <v>18710</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1705,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>23477</v>
+        <v>21119</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1720,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>42837</v>
+        <v>39829</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1741,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>53005</v>
+        <v>57194</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1756,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>42708</v>
+        <v>39556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -1771,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>95713</v>
+        <v>96750</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -1792,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>94900</v>
+        <v>99454</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -1807,7 +1900,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>87225</v>
+        <v>79742</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -1822,7 +1915,7 @@
         <v>102</v>
       </c>
       <c r="N9" s="7">
-        <v>182125</v>
+        <v>179196</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1845,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2866</v>
+        <v>2898</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1860,31 +1953,31 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>3250</v>
+        <v>3024</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>6116</v>
+        <v>5923</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,46 +1989,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1363</v>
+        <v>1192</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1215</v>
+        <v>1123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2578</v>
+        <v>2316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,46 +2040,46 @@
         <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>10000</v>
+        <v>9919</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>8597</v>
+        <v>7735</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>18596</v>
+        <v>17654</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,46 +2091,46 @@
         <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>45701</v>
+        <v>45399</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>58084</v>
+        <v>52268</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>103784</v>
+        <v>97667</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,46 +2142,46 @@
         <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>130795</v>
+        <v>132597</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>148413</v>
+        <v>136386</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>225</v>
       </c>
       <c r="N14" s="7">
-        <v>279208</v>
+        <v>268982</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,7 +2193,7 @@
         <v>134</v>
       </c>
       <c r="D15" s="7">
-        <v>190725</v>
+        <v>192005</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2115,7 +2208,7 @@
         <v>215</v>
       </c>
       <c r="I15" s="7">
-        <v>219558</v>
+        <v>200537</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2130,7 +2223,7 @@
         <v>349</v>
       </c>
       <c r="N15" s="7">
-        <v>410283</v>
+        <v>392542</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2144,7 +2237,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2153,46 +2246,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4120</v>
+        <v>3661</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2343</v>
+        <v>2174</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>6463</v>
+        <v>5835</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,46 +2297,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3130</v>
+        <v>3070</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4696</v>
+        <v>4259</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>7825</v>
+        <v>7330</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,46 +2348,46 @@
         <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>14536</v>
+        <v>14297</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>11332</v>
+        <v>10316</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>25868</v>
+        <v>24613</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,46 +2399,46 @@
         <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>117177</v>
+        <v>108318</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>115149</v>
+        <v>105157</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
       </c>
       <c r="N19" s="7">
-        <v>232326</v>
+        <v>213475</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,46 +2450,46 @@
         <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>162526</v>
+        <v>160623</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
       </c>
       <c r="I20" s="7">
-        <v>166506</v>
+        <v>157691</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>405</v>
       </c>
       <c r="N20" s="7">
-        <v>329033</v>
+        <v>318314</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2501,7 @@
         <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>301489</v>
+        <v>289970</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2423,7 +2516,7 @@
         <v>443</v>
       </c>
       <c r="I21" s="7">
-        <v>300026</v>
+        <v>279597</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2438,7 +2531,7 @@
         <v>745</v>
       </c>
       <c r="N21" s="7">
-        <v>601515</v>
+        <v>569567</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2452,7 +2545,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2461,28 +2554,28 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>8148</v>
+        <v>7824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>13182</v>
+        <v>11919</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>149</v>
@@ -2491,7 +2584,7 @@
         <v>29</v>
       </c>
       <c r="N22" s="7">
-        <v>21330</v>
+        <v>19743</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>150</v>
@@ -2500,7 +2593,7 @@
         <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,46 +2605,46 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>9564</v>
+        <v>8681</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>12931</v>
+        <v>11192</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
       </c>
       <c r="N23" s="7">
-        <v>22495</v>
+        <v>19874</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,46 +2656,46 @@
         <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>23465</v>
+        <v>21291</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
       </c>
       <c r="I24" s="7">
-        <v>34276</v>
+        <v>30610</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
       </c>
       <c r="N24" s="7">
-        <v>57741</v>
+        <v>51901</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,46 +2707,46 @@
         <v>117</v>
       </c>
       <c r="D25" s="7">
-        <v>118188</v>
+        <v>107957</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
       </c>
       <c r="I25" s="7">
-        <v>141626</v>
+        <v>129976</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
       </c>
       <c r="N25" s="7">
-        <v>259814</v>
+        <v>237933</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,46 +2758,46 @@
         <v>172</v>
       </c>
       <c r="D26" s="7">
-        <v>216914</v>
+        <v>407410</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>297</v>
       </c>
       <c r="I26" s="7">
-        <v>185467</v>
+        <v>175977</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>469</v>
       </c>
       <c r="N26" s="7">
-        <v>402381</v>
+        <v>583387</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2809,7 @@
         <v>331</v>
       </c>
       <c r="D27" s="7">
-        <v>376279</v>
+        <v>553163</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -2731,7 +2824,7 @@
         <v>609</v>
       </c>
       <c r="I27" s="7">
-        <v>387482</v>
+        <v>359675</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -2746,7 +2839,7 @@
         <v>940</v>
       </c>
       <c r="N27" s="7">
-        <v>763761</v>
+        <v>912838</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2760,7 +2853,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2769,46 +2862,46 @@
         <v>40</v>
       </c>
       <c r="D28" s="7">
-        <v>34264</v>
+        <v>30704</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>55</v>
       </c>
       <c r="I28" s="7">
-        <v>35022</v>
+        <v>30650</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
       </c>
       <c r="N28" s="7">
-        <v>69285</v>
+        <v>61354</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,46 +2913,46 @@
         <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>20378</v>
+        <v>17595</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>21431</v>
+        <v>18668</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
       </c>
       <c r="N29" s="7">
-        <v>41809</v>
+        <v>36264</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,46 +2964,46 @@
         <v>51</v>
       </c>
       <c r="D30" s="7">
-        <v>47058</v>
+        <v>42299</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>77</v>
       </c>
       <c r="I30" s="7">
-        <v>48420</v>
+        <v>43305</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
       </c>
       <c r="N30" s="7">
-        <v>95478</v>
+        <v>85604</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,46 +3015,46 @@
         <v>131</v>
       </c>
       <c r="D31" s="7">
-        <v>113111</v>
+        <v>104443</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>167</v>
       </c>
       <c r="I31" s="7">
-        <v>90558</v>
+        <v>84258</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>298</v>
       </c>
       <c r="N31" s="7">
-        <v>203669</v>
+        <v>188701</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,46 +3066,46 @@
         <v>139</v>
       </c>
       <c r="D32" s="7">
-        <v>123598</v>
+        <v>121087</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
       </c>
       <c r="I32" s="7">
-        <v>112166</v>
+        <v>106210</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>337</v>
       </c>
       <c r="N32" s="7">
-        <v>235764</v>
+        <v>227296</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3117,7 @@
         <v>383</v>
       </c>
       <c r="D33" s="7">
-        <v>338409</v>
+        <v>316128</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -3039,7 +3132,7 @@
         <v>529</v>
       </c>
       <c r="I33" s="7">
-        <v>307596</v>
+        <v>283091</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3054,7 +3147,7 @@
         <v>912</v>
       </c>
       <c r="N33" s="7">
-        <v>646005</v>
+        <v>599219</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -3068,55 +3161,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D34" s="7">
-        <v>61983</v>
+        <v>27685</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>62</v>
+      </c>
+      <c r="I34" s="7">
+        <v>30285</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="7">
-        <v>151</v>
-      </c>
-      <c r="I34" s="7">
-        <v>80753</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>108</v>
+      </c>
+      <c r="N34" s="7">
+        <v>57970</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M34" s="7">
-        <v>248</v>
-      </c>
-      <c r="N34" s="7">
-        <v>142736</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,49 +3218,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D35" s="7">
-        <v>41451</v>
+        <v>22453</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>29</v>
+      </c>
+      <c r="I35" s="7">
+        <v>15089</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="K35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="7">
+        <v>64</v>
+      </c>
+      <c r="N35" s="7">
+        <v>37543</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H35" s="7">
-        <v>42</v>
-      </c>
-      <c r="I35" s="7">
-        <v>25212</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M35" s="7">
-        <v>101</v>
-      </c>
-      <c r="N35" s="7">
-        <v>66663</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,49 +3269,49 @@
         <v>28</v>
       </c>
       <c r="C36" s="7">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D36" s="7">
-        <v>52541</v>
+        <v>25610</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H36" s="7">
+        <v>65</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30699</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>107</v>
+      </c>
+      <c r="N36" s="7">
+        <v>56309</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="7">
-        <v>137</v>
-      </c>
-      <c r="I36" s="7">
-        <v>69484</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M36" s="7">
-        <v>219</v>
-      </c>
-      <c r="N36" s="7">
-        <v>122025</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,49 +3320,49 @@
         <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7">
-        <v>87619</v>
+        <v>56425</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H37" s="7">
+        <v>71</v>
+      </c>
+      <c r="I37" s="7">
+        <v>33057</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>157</v>
+      </c>
+      <c r="N37" s="7">
+        <v>89482</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="7">
-        <v>102</v>
-      </c>
-      <c r="I37" s="7">
-        <v>51116</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M37" s="7">
-        <v>229</v>
-      </c>
-      <c r="N37" s="7">
-        <v>138735</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,49 +3371,49 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D38" s="7">
-        <v>87705</v>
+        <v>65455</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="7">
+        <v>92</v>
+      </c>
+      <c r="I38" s="7">
+        <v>246050</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>193</v>
+      </c>
+      <c r="N38" s="7">
+        <v>311505</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H38" s="7">
-        <v>124</v>
-      </c>
-      <c r="I38" s="7">
-        <v>169410</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M38" s="7">
-        <v>258</v>
-      </c>
-      <c r="N38" s="7">
-        <v>257115</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>499</v>
+        <v>310</v>
       </c>
       <c r="D39" s="7">
-        <v>331299</v>
+        <v>197628</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3344,10 +3437,10 @@
         <v>58</v>
       </c>
       <c r="H39" s="7">
-        <v>556</v>
+        <v>319</v>
       </c>
       <c r="I39" s="7">
-        <v>395975</v>
+        <v>355181</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3359,10 +3452,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>1055</v>
+        <v>629</v>
       </c>
       <c r="N39" s="7">
-        <v>727273</v>
+        <v>552809</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -3376,55 +3469,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D40" s="7">
-        <v>118022</v>
+        <v>27445</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="7">
+        <v>89</v>
+      </c>
+      <c r="I40" s="7">
+        <v>40824</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>140</v>
+      </c>
+      <c r="N40" s="7">
+        <v>68270</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H40" s="7">
-        <v>234</v>
-      </c>
-      <c r="I40" s="7">
-        <v>138596</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M40" s="7">
-        <v>392</v>
-      </c>
-      <c r="N40" s="7">
-        <v>256617</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,49 +3526,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D41" s="7">
-        <v>75886</v>
+        <v>14043</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="7">
+        <v>13</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6681</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" s="7">
+        <v>37</v>
+      </c>
+      <c r="N41" s="7">
+        <v>20724</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="7">
-        <v>100</v>
-      </c>
-      <c r="I41" s="7">
-        <v>69621</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M41" s="7">
-        <v>195</v>
-      </c>
-      <c r="N41" s="7">
-        <v>145507</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,49 +3577,49 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="D42" s="7">
-        <v>163493</v>
+        <v>22581</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="7">
+        <v>72</v>
+      </c>
+      <c r="I42" s="7">
+        <v>32987</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>112</v>
+      </c>
+      <c r="N42" s="7">
+        <v>55567</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H42" s="7">
-        <v>295</v>
-      </c>
-      <c r="I42" s="7">
-        <v>184966</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M42" s="7">
-        <v>490</v>
-      </c>
-      <c r="N42" s="7">
-        <v>348459</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3628,49 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>533</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
-        <v>501157</v>
+        <v>26081</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H43" s="7">
+        <v>31</v>
+      </c>
+      <c r="I43" s="7">
+        <v>14110</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43" s="7">
+        <v>72</v>
+      </c>
+      <c r="N43" s="7">
+        <v>40192</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="H43" s="7">
-        <v>751</v>
-      </c>
-      <c r="I43" s="7">
-        <v>480008</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M43" s="7">
-        <v>1284</v>
-      </c>
-      <c r="N43" s="7">
-        <v>981165</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +3679,49 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>718</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
-        <v>774543</v>
+        <v>20161</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" s="7">
+        <v>32</v>
+      </c>
+      <c r="I44" s="7">
+        <v>14883</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" s="7">
+        <v>65</v>
+      </c>
+      <c r="N44" s="7">
+        <v>35044</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I44" s="7">
-        <v>824670</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M44" s="7">
-        <v>1742</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1599213</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,63 +3730,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>189</v>
+      </c>
+      <c r="D45" s="7">
+        <v>110312</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>237</v>
+      </c>
+      <c r="I45" s="7">
+        <v>109485</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="7">
+        <v>426</v>
+      </c>
+      <c r="N45" s="7">
+        <v>219797</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>158</v>
+      </c>
+      <c r="D46" s="7">
+        <v>107335</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H46" s="7">
+        <v>234</v>
+      </c>
+      <c r="I46" s="7">
+        <v>122688</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M46" s="7">
+        <v>392</v>
+      </c>
+      <c r="N46" s="7">
+        <v>230023</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>95</v>
+      </c>
+      <c r="D47" s="7">
+        <v>67036</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="7">
+        <v>100</v>
+      </c>
+      <c r="I47" s="7">
+        <v>60419</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M47" s="7">
+        <v>195</v>
+      </c>
+      <c r="N47" s="7">
+        <v>127455</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>195</v>
+      </c>
+      <c r="D48" s="7">
+        <v>152429</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="7">
+        <v>295</v>
+      </c>
+      <c r="I48" s="7">
+        <v>167503</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" s="7">
+        <v>490</v>
+      </c>
+      <c r="N48" s="7">
+        <v>319932</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7">
+        <v>533</v>
+      </c>
+      <c r="D49" s="7">
+        <v>467334</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" s="7">
+        <v>751</v>
+      </c>
+      <c r="I49" s="7">
+        <v>439945</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1284</v>
+      </c>
+      <c r="N49" s="7">
+        <v>907279</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>718</v>
+      </c>
+      <c r="D50" s="7">
+        <v>964527</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1024</v>
+      </c>
+      <c r="I50" s="7">
+        <v>876751</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1742</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1841278</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1699</v>
       </c>
-      <c r="D45" s="7">
-        <v>1633101</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>1758661</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>2404</v>
       </c>
-      <c r="I45" s="7">
-        <v>1697862</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>1667306</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>4103</v>
       </c>
-      <c r="N45" s="7">
-        <v>3330962</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>322</v>
+      <c r="N51" s="7">
+        <v>3425967</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
